--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.120220.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.120220.xlsx_with_dialog_acts.xlsx
@@ -517,12 +517,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3835,12 +3835,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4801,12 +4801,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5011,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5053,12 +5053,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5179,12 +5179,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5977,12 +5977,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6187,12 +6187,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6607,12 +6607,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6691,12 +6691,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6985,12 +6985,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7447,12 +7447,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7489,12 +7489,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7531,12 +7531,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7657,12 +7657,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7699,12 +7699,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8371,12 +8371,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8455,12 +8455,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8581,12 +8581,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9043,12 +9043,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9085,12 +9085,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9463,12 +9463,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9757,12 +9757,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9841,12 +9841,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10009,12 +10009,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10051,12 +10051,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10471,12 +10471,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11603,12 +11603,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11729,12 +11729,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12147,12 +12147,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12525,12 +12525,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13155,12 +13155,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13491,12 +13491,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13659,12 +13659,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14331,12 +14331,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14541,12 +14541,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14709,12 +14709,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15255,12 +15255,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15591,12 +15591,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16221,12 +16221,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16347,12 +16347,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16389,12 +16389,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16431,12 +16431,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16935,12 +16935,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17019,12 +17019,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17187,12 +17187,12 @@
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17901,12 +17901,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18111,12 +18111,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18699,12 +18699,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19077,12 +19077,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19497,12 +19497,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19665,12 +19665,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19875,12 +19875,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20293,12 +20293,12 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20333,12 +20333,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20453,12 +20453,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20573,12 +20573,12 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20613,12 +20613,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20653,12 +20653,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20693,12 +20693,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -20853,12 +20853,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20893,12 +20893,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -20973,12 +20973,12 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21093,12 +21093,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21373,12 +21373,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21973,12 +21973,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23253,12 +23253,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23293,12 +23293,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24141,12 +24141,12 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24221,12 +24221,12 @@
       <c r="H571" t="inlineStr"/>
       <c r="I571" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24301,12 +24301,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24341,12 +24341,12 @@
       <c r="H574" t="inlineStr"/>
       <c r="I574" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24501,12 +24501,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24581,12 +24581,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25225,12 +25225,12 @@
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25825,12 +25825,12 @@
       <c r="H611" t="inlineStr"/>
       <c r="I611" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26065,12 +26065,12 @@
       <c r="H617" t="inlineStr"/>
       <c r="I617" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26345,12 +26345,12 @@
       <c r="H624" t="inlineStr"/>
       <c r="I624" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26665,12 +26665,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27065,12 +27065,12 @@
       <c r="H642" t="inlineStr"/>
       <c r="I642" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27425,12 +27425,12 @@
       <c r="H651" t="inlineStr"/>
       <c r="I651" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27505,12 +27505,12 @@
       <c r="H653" t="inlineStr"/>
       <c r="I653" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28289,12 +28289,12 @@
       <c r="H672" t="inlineStr"/>
       <c r="I672" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28709,12 +28709,12 @@
       <c r="H682" t="inlineStr"/>
       <c r="I682" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29381,12 +29381,12 @@
       <c r="H698" t="inlineStr"/>
       <c r="I698" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29675,12 +29675,12 @@
       <c r="H705" t="inlineStr"/>
       <c r="I705" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
